--- a/biology/Botanique/Aphanisma_blitoides/Aphanisma_blitoides.xlsx
+++ b/biology/Botanique/Aphanisma_blitoides/Aphanisma_blitoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphanisma est un genre de plantes monotypique de la famille des Amaranthaceae, qui comprend une seule espèce, Aphanisma blitoides, originaire d'Amérique du Nord.
 Il s'agit d'une plante annuelle rare, croissant sur les plages du littoral de la Basse-Californie et du sud de la Californie, y compris les Channel Islands.
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (21 juin 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (21 juin 2014) :
 Aphanisma blitoides Nutt. ex Moq.</t>
         </is>
       </c>
